--- a/api/demo/white_demo_list.xlsx
+++ b/api/demo/white_demo_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>手机号</t>
   </si>
@@ -31,6 +31,25 @@
   </si>
   <si>
     <t>测试哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+  </si>
+  <si>
+    <t>教室编号</t>
+  </si>
+  <si>
+    <t>年级</t>
+  </si>
+  <si>
+    <t>中江1</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>2018级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,8 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -386,7 +408,7 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,13 +416,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>12345678900</v>
       </c>
@@ -408,10 +439,19 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>200</v>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/api/demo/white_demo_list.xlsx
+++ b/api/demo/white_demo_list.xlsx
@@ -1,46 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
-    <t>手机号</t>
+    <r>
+      <t>手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>班级编码</t>
+    <r>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
   </si>
   <si>
     <t>学号</t>
   </si>
   <si>
-    <t>测试哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>班级编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
   </si>
   <si>
-    <t>班级名称</t>
+    <r>
+      <t>班级名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
   </si>
   <si>
-    <t>教室编号</t>
+    <r>
+      <t>教室编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
   </si>
   <si>
-    <t>年级</t>
+    <r>
+      <t>年级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+  </si>
+  <si>
+    <t>测试哥</t>
   </si>
   <si>
     <t>中江1</t>
@@ -50,39 +109,380 @@
   </si>
   <si>
     <t>2018级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,25 +490,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,44 +1088,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -436,7 +1133,7 @@
         <v>12345678900</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -447,7 +1144,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
@@ -455,36 +1152,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/api/demo/white_demo_list.xlsx
+++ b/api/demo/white_demo_list.xlsx
@@ -16,15 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>手机号</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
@@ -32,12 +40,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>姓名</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
@@ -48,12 +64,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>班级编码</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
@@ -61,54 +85,30 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>班级名称</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>·</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>教室编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>年级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-  </si>
-  <si>
-    <t>测试哥</t>
+    <t>测试1哥</t>
   </si>
   <si>
     <t>中江1</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>2018级</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,17 +133,63 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -152,67 +198,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,48 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,11 +266,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -297,181 +289,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,24 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,6 +509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,153 +571,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1089,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1121,19 +1113,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
-        <v>12345678900</v>
+        <v>12345678921</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -1142,14 +1130,9 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/demo/white_demo_list.xlsx
+++ b/api/demo/white_demo_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <r>
       <rPr>
@@ -85,13 +85,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>班级名称</t>
     </r>
     <r>
@@ -105,10 +98,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>性别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+  </si>
+  <si>
     <t>测试1哥</t>
   </si>
   <si>
     <t>中江1</t>
+  </si>
+  <si>
+    <t>男</t>
   </si>
 </sst>
 </file>
@@ -116,12 +127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,82 +142,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,23 +164,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,34 +247,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -289,13 +307,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +397,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,61 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,91 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +498,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,20 +577,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,15 +598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1107,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1113,7 +1131,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:6">
@@ -1121,7 +1141,7 @@
         <v>12345678921</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -1130,9 +1150,11 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
